--- a/Medidas/mediciones_voluntarios.xlsx
+++ b/Medidas/mediciones_voluntarios.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -738,6 +738,65 @@
         <v>994.4400000000001</v>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>prueba 6</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2024-10-03_01-46-01</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Epicóndilo lateral</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>MEDIDAS(Kgf/cm2)</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>MEDIDAS (kPa)</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="D25" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="E25" t="n">
+        <v>184.02</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="D26" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="E26" t="n">
+        <v>392.82</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="D27" t="n">
+        <v>6.37</v>
+      </c>
+      <c r="E27" t="n">
+        <v>624.62</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="D28" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="E28" t="n">
+        <v>833.42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Medidas/mediciones_voluntarios.xlsx
+++ b/Medidas/mediciones_voluntarios.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -797,6 +797,81 @@
         <v>833.42</v>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Pruebaapp</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2024-10-03_04-25-44</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>otroapp</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>MEDIDAS(Kgf/cm2)</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>MEDIDAS (kPa)</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="D30" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="E30" t="n">
+        <v>207.03</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="D31" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="E31" t="n">
+        <v>392.82</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="D32" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="E32" t="n">
+        <v>601.62</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="D33" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="E33" t="n">
+        <v>833.42</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="D34" t="n">
+        <v>10.63</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1042.22</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="D35" t="n">
+        <v>12.04</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1180.24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Medidas/mediciones_voluntarios.xlsx
+++ b/Medidas/mediciones_voluntarios.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -872,6 +872,409 @@
         <v>1180.24</v>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>prueba app 2</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2024-10-03_14-07-44</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Occipucio</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>MEDIDAS(Kgf/cm2)</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>MEDIDAS (kPa)</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="D37" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E37" t="n">
+        <v>92.01000000000001</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="D38" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E38" t="n">
+        <v>92.01000000000001</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="D39" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E39" t="n">
+        <v>92.01000000000001</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="D40" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E40" t="n">
+        <v>92.01000000000001</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="D41" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E41" t="n">
+        <v>92.01000000000001</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="D42" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E42" t="n">
+        <v>92.01000000000001</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="D43" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E43" t="n">
+        <v>92.01000000000001</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="D44" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E44" t="n">
+        <v>92.01000000000001</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="D45" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E45" t="n">
+        <v>92.01000000000001</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="D46" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E46" t="n">
+        <v>92.01000000000001</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="D47" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E47" t="n">
+        <v>92.01000000000001</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="D48" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E48" t="n">
+        <v>92.01000000000001</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="D49" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E49" t="n">
+        <v>92.01000000000001</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="D50" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E50" t="n">
+        <v>92.01000000000001</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="D51" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E51" t="n">
+        <v>92.01000000000001</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="D52" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E52" t="n">
+        <v>92.01000000000001</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="D53" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E53" t="n">
+        <v>92.01000000000001</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="D54" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E54" t="n">
+        <v>92.01000000000001</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="D55" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E55" t="n">
+        <v>92.01000000000001</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="D56" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E56" t="n">
+        <v>92.01000000000001</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="D57" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E57" t="n">
+        <v>92.01000000000001</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="D58" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E58" t="n">
+        <v>92.01000000000001</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="D59" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E59" t="n">
+        <v>92.01000000000001</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="D60" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E60" t="n">
+        <v>92.01000000000001</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="D61" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E61" t="n">
+        <v>92.01000000000001</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="D62" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E62" t="n">
+        <v>92.01000000000001</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="D63" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E63" t="n">
+        <v>92.01000000000001</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="D64" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E64" t="n">
+        <v>92.01000000000001</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="D65" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E65" t="n">
+        <v>92.01000000000001</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="D66" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E66" t="n">
+        <v>92.01000000000001</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="D67" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E67" t="n">
+        <v>92.01000000000001</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="D68" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E68" t="n">
+        <v>92.01000000000001</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="D69" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E69" t="n">
+        <v>92.01000000000001</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="D70" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E70" t="n">
+        <v>92.01000000000001</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="D71" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E71" t="n">
+        <v>92.01000000000001</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="D72" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E72" t="n">
+        <v>92.01000000000001</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="D73" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E73" t="n">
+        <v>92.01000000000001</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="D74" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E74" t="n">
+        <v>92.01000000000001</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="D75" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E75" t="n">
+        <v>92.01000000000001</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="D76" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E76" t="n">
+        <v>92.01000000000001</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="D77" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E77" t="n">
+        <v>92.01000000000001</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="D78" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E78" t="n">
+        <v>92.01000000000001</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="D79" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E79" t="n">
+        <v>92.01000000000001</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="D80" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E80" t="n">
+        <v>92.01000000000001</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="D81" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E81" t="n">
+        <v>92.01000000000001</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="D82" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E82" t="n">
+        <v>92.01000000000001</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="D83" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E83" t="n">
+        <v>92.01000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Medidas/mediciones_voluntarios.xlsx
+++ b/Medidas/mediciones_voluntarios.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E83"/>
+  <dimension ref="A1:E119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1275,6 +1275,313 @@
         <v>92.01000000000001</v>
       </c>
     </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>prueba app 3</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>2024-10-03_14-15-53</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Epicóndilo lateral</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>MEDIDAS(Kgf/cm2)</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>MEDIDAS (kPa)</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="D85" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="E85" t="n">
+        <v>207.03</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="D86" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="E86" t="n">
+        <v>230.03</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="D87" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="E87" t="n">
+        <v>253.03</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="D88" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="E88" t="n">
+        <v>277.81</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="D89" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="E89" t="n">
+        <v>300.81</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="D90" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="E90" t="n">
+        <v>346.82</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="D91" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="E91" t="n">
+        <v>369.82</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="D92" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="E92" t="n">
+        <v>392.82</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="D93" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="E93" t="n">
+        <v>415.83</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="D94" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="E94" t="n">
+        <v>438.83</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="D95" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="E95" t="n">
+        <v>461.83</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="D96" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="E96" t="n">
+        <v>484.83</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="D97" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="E97" t="n">
+        <v>507.84</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="D98" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="E98" t="n">
+        <v>532.61</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="D99" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="E99" t="n">
+        <v>555.61</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="D100" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="E100" t="n">
+        <v>578.62</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="D101" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="E101" t="n">
+        <v>601.62</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="D102" t="n">
+        <v>6.37</v>
+      </c>
+      <c r="E102" t="n">
+        <v>624.62</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="D103" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E103" t="n">
+        <v>647.63</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="D104" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="E104" t="n">
+        <v>670.63</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="D105" t="n">
+        <v>7.07</v>
+      </c>
+      <c r="E105" t="n">
+        <v>693.63</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="D106" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="E106" t="n">
+        <v>716.64</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="D107" t="n">
+        <v>7.54</v>
+      </c>
+      <c r="E107" t="n">
+        <v>739.64</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="D108" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="E108" t="n">
+        <v>762.64</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="D109" t="n">
+        <v>8.029999999999999</v>
+      </c>
+      <c r="E109" t="n">
+        <v>787.41</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="D110" t="n">
+        <v>8.26</v>
+      </c>
+      <c r="E110" t="n">
+        <v>810.42</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="D111" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="E111" t="n">
+        <v>833.42</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="D112" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="E112" t="n">
+        <v>856.42</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="D113" t="n">
+        <v>8.970000000000001</v>
+      </c>
+      <c r="E113" t="n">
+        <v>879.4299999999999</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="D114" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="E114" t="n">
+        <v>902.4299999999999</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="D115" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="E115" t="n">
+        <v>925.4299999999999</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="D116" t="n">
+        <v>9.67</v>
+      </c>
+      <c r="E116" t="n">
+        <v>948.4400000000001</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="D117" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="E117" t="n">
+        <v>971.4400000000001</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="D118" t="n">
+        <v>10.14</v>
+      </c>
+      <c r="E118" t="n">
+        <v>994.4400000000001</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="D119" t="n">
+        <v>10.38</v>
+      </c>
+      <c r="E119" t="n">
+        <v>1017.45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Medidas/mediciones_voluntarios.xlsx
+++ b/Medidas/mediciones_voluntarios.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E260"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -872,6 +872,1939 @@
         <v>1180.24</v>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>prueba 7</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2024-10-03_13-44-15</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Trocánter mayor</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>MEDIDAS(Kgf/cm2)</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>MEDIDAS (kPa)</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="D37" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="E37" t="n">
+        <v>184.02</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="D38" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="E38" t="n">
+        <v>369.82</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="D39" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="E39" t="n">
+        <v>532.61</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="D40" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="E40" t="n">
+        <v>532.61</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="D41" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="E41" t="n">
+        <v>532.61</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="D42" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="E42" t="n">
+        <v>532.61</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="D43" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="E43" t="n">
+        <v>532.61</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="D44" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="E44" t="n">
+        <v>532.61</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="D45" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="E45" t="n">
+        <v>532.61</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="D46" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="E46" t="n">
+        <v>532.61</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="D47" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="E47" t="n">
+        <v>532.61</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="D48" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="E48" t="n">
+        <v>532.61</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="D49" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="E49" t="n">
+        <v>532.61</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="D50" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="E50" t="n">
+        <v>532.61</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="D51" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="E51" t="n">
+        <v>532.61</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="D52" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="E52" t="n">
+        <v>532.61</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="D53" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="E53" t="n">
+        <v>532.61</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="D54" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="E54" t="n">
+        <v>532.61</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="D55" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="E55" t="n">
+        <v>532.61</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="D56" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="E56" t="n">
+        <v>532.61</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="D57" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="E57" t="n">
+        <v>532.61</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="D58" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="E58" t="n">
+        <v>532.61</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="D59" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="E59" t="n">
+        <v>532.61</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="D60" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="E60" t="n">
+        <v>532.61</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="D61" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="E61" t="n">
+        <v>532.61</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="D62" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="E62" t="n">
+        <v>532.61</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="D63" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="E63" t="n">
+        <v>532.61</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="D64" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="E64" t="n">
+        <v>532.61</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="D65" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="E65" t="n">
+        <v>532.61</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="D66" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="E66" t="n">
+        <v>532.61</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="D67" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="E67" t="n">
+        <v>532.61</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="D68" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="E68" t="n">
+        <v>532.61</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="D69" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="E69" t="n">
+        <v>532.61</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="D70" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="E70" t="n">
+        <v>532.61</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="D71" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="E71" t="n">
+        <v>532.61</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="D72" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="E72" t="n">
+        <v>532.61</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="D73" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="E73" t="n">
+        <v>532.61</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="D74" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="E74" t="n">
+        <v>532.61</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Prueba 9</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>2024-10-03_13-51-19</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Epicóndilo lateral</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>MEDIDAS(Kgf/cm2)</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>MEDIDAS (kPa)</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="D76" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="E76" t="n">
+        <v>184.02</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="D77" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="E77" t="n">
+        <v>369.82</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="D78" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="E78" t="n">
+        <v>484.83</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="D79" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="E79" t="n">
+        <v>507.84</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="D80" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="E80" t="n">
+        <v>532.61</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="D81" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="E81" t="n">
+        <v>555.61</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="D82" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="E82" t="n">
+        <v>578.62</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="D83" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="E83" t="n">
+        <v>601.62</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="D84" t="n">
+        <v>6.37</v>
+      </c>
+      <c r="E84" t="n">
+        <v>624.62</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="D85" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E85" t="n">
+        <v>647.63</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="D86" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="E86" t="n">
+        <v>670.63</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="D87" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="E87" t="n">
+        <v>716.64</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="D88" t="n">
+        <v>8.029999999999999</v>
+      </c>
+      <c r="E88" t="n">
+        <v>787.41</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="D89" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="E89" t="n">
+        <v>856.42</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="D90" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E90" t="n">
+        <v>1157.23</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="D91" t="n">
+        <v>13.23</v>
+      </c>
+      <c r="E91" t="n">
+        <v>1297.02</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="D92" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E92" t="n">
+        <v>1481.05</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="D93" t="n">
+        <v>16.53</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1620.83</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="D94" t="n">
+        <v>17</v>
+      </c>
+      <c r="E94" t="n">
+        <v>1666.84</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="D95" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="E95" t="n">
+        <v>1481.05</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="D96" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="E96" t="n">
+        <v>1343.03</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="D97" t="n">
+        <v>12.04</v>
+      </c>
+      <c r="E97" t="n">
+        <v>1180.24</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="D98" t="n">
+        <v>12.04</v>
+      </c>
+      <c r="E98" t="n">
+        <v>1180.24</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="D99" t="n">
+        <v>12.04</v>
+      </c>
+      <c r="E99" t="n">
+        <v>1180.24</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="D100" t="n">
+        <v>12.04</v>
+      </c>
+      <c r="E100" t="n">
+        <v>1180.24</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="D101" t="n">
+        <v>12.04</v>
+      </c>
+      <c r="E101" t="n">
+        <v>1180.24</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="D102" t="n">
+        <v>12.04</v>
+      </c>
+      <c r="E102" t="n">
+        <v>1180.24</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="D103" t="n">
+        <v>12.04</v>
+      </c>
+      <c r="E103" t="n">
+        <v>1180.24</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="D104" t="n">
+        <v>12.04</v>
+      </c>
+      <c r="E104" t="n">
+        <v>1180.24</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="D105" t="n">
+        <v>12.04</v>
+      </c>
+      <c r="E105" t="n">
+        <v>1180.24</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="D106" t="n">
+        <v>12.04</v>
+      </c>
+      <c r="E106" t="n">
+        <v>1180.24</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="D107" t="n">
+        <v>12.04</v>
+      </c>
+      <c r="E107" t="n">
+        <v>1180.24</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="D108" t="n">
+        <v>12.04</v>
+      </c>
+      <c r="E108" t="n">
+        <v>1180.24</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="D109" t="n">
+        <v>12.04</v>
+      </c>
+      <c r="E109" t="n">
+        <v>1180.24</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="D110" t="n">
+        <v>12.04</v>
+      </c>
+      <c r="E110" t="n">
+        <v>1180.24</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="D111" t="n">
+        <v>12.04</v>
+      </c>
+      <c r="E111" t="n">
+        <v>1180.24</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="D112" t="n">
+        <v>12.04</v>
+      </c>
+      <c r="E112" t="n">
+        <v>1180.24</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="D113" t="n">
+        <v>12.04</v>
+      </c>
+      <c r="E113" t="n">
+        <v>1180.24</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="D114" t="n">
+        <v>12.04</v>
+      </c>
+      <c r="E114" t="n">
+        <v>1180.24</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="D115" t="n">
+        <v>12.04</v>
+      </c>
+      <c r="E115" t="n">
+        <v>1180.24</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>prueba 10</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>2024-10-03_13-53-51</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Occipucio</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>MEDIDAS(Kgf/cm2)</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>MEDIDAS (kPa)</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="D117" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E117" t="n">
+        <v>92.01000000000001</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="D118" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="E118" t="n">
+        <v>230.03</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="D119" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="E119" t="n">
+        <v>230.03</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="D120" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="E120" t="n">
+        <v>230.03</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="D121" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="E121" t="n">
+        <v>230.03</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="D122" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="E122" t="n">
+        <v>230.03</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="D123" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="E123" t="n">
+        <v>230.03</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="D124" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="E124" t="n">
+        <v>230.03</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="D125" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="E125" t="n">
+        <v>230.03</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="D126" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="E126" t="n">
+        <v>230.03</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="D127" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="E127" t="n">
+        <v>230.03</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="D128" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="E128" t="n">
+        <v>230.03</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="D129" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="E129" t="n">
+        <v>230.03</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="D130" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="E130" t="n">
+        <v>230.03</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="D131" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="E131" t="n">
+        <v>230.03</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="D132" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="E132" t="n">
+        <v>230.03</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="D133" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="E133" t="n">
+        <v>230.03</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="D134" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="E134" t="n">
+        <v>230.03</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="D135" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="E135" t="n">
+        <v>230.03</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="D136" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="E136" t="n">
+        <v>230.03</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="D137" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="E137" t="n">
+        <v>230.03</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="D138" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="E138" t="n">
+        <v>230.03</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="D139" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="E139" t="n">
+        <v>230.03</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="D140" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="E140" t="n">
+        <v>230.03</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="D141" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="E141" t="n">
+        <v>230.03</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="D142" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="E142" t="n">
+        <v>230.03</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="D143" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="E143" t="n">
+        <v>230.03</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="D144" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="E144" t="n">
+        <v>230.03</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="D145" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="E145" t="n">
+        <v>230.03</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="D146" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="E146" t="n">
+        <v>230.03</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="D147" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="E147" t="n">
+        <v>230.03</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="D148" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="E148" t="n">
+        <v>230.03</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="D149" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="E149" t="n">
+        <v>230.03</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="D150" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="E150" t="n">
+        <v>230.03</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="D151" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="E151" t="n">
+        <v>230.03</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="D152" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="E152" t="n">
+        <v>230.03</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="D153" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="E153" t="n">
+        <v>230.03</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="D154" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="E154" t="n">
+        <v>230.03</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="D155" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="E155" t="n">
+        <v>230.03</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="D156" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="E156" t="n">
+        <v>230.03</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="D157" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="E157" t="n">
+        <v>230.03</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="D158" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="E158" t="n">
+        <v>230.03</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="D159" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="E159" t="n">
+        <v>230.03</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="D160" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="E160" t="n">
+        <v>230.03</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="D161" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="E161" t="n">
+        <v>230.03</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="D162" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="E162" t="n">
+        <v>230.03</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="D163" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="E163" t="n">
+        <v>230.03</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="D164" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="E164" t="n">
+        <v>230.03</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="D165" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="E165" t="n">
+        <v>230.03</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>prueba 8</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>2024-10-03_13-56-00</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Segunda costilla</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>MEDIDAS(Kgf/cm2)</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>MEDIDAS (kPa)</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="D167" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E167" t="n">
+        <v>92.01000000000001</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="D168" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="E168" t="n">
+        <v>230.03</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="D169" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="E169" t="n">
+        <v>415.83</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="D170" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="E170" t="n">
+        <v>415.83</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="D171" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="E171" t="n">
+        <v>415.83</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="D172" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="E172" t="n">
+        <v>415.83</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="D173" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="E173" t="n">
+        <v>415.83</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="D174" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="E174" t="n">
+        <v>415.83</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="D175" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="E175" t="n">
+        <v>415.83</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="D176" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="E176" t="n">
+        <v>415.83</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="D177" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="E177" t="n">
+        <v>415.83</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="D178" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="E178" t="n">
+        <v>415.83</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="D179" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="E179" t="n">
+        <v>415.83</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="D180" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="E180" t="n">
+        <v>415.83</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="D181" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="E181" t="n">
+        <v>415.83</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="D182" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="E182" t="n">
+        <v>415.83</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="D183" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="E183" t="n">
+        <v>415.83</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="D184" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="E184" t="n">
+        <v>415.83</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="D185" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="E185" t="n">
+        <v>415.83</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="D186" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="E186" t="n">
+        <v>415.83</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="D187" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="E187" t="n">
+        <v>415.83</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="D188" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="E188" t="n">
+        <v>415.83</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="D189" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="E189" t="n">
+        <v>415.83</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="D190" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="E190" t="n">
+        <v>415.83</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="D191" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="E191" t="n">
+        <v>415.83</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="D192" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="E192" t="n">
+        <v>415.83</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="D193" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="E193" t="n">
+        <v>415.83</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="D194" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="E194" t="n">
+        <v>415.83</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="D195" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="E195" t="n">
+        <v>415.83</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="D196" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="E196" t="n">
+        <v>415.83</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="D197" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="E197" t="n">
+        <v>415.83</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="D198" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="E198" t="n">
+        <v>415.83</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="D199" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="E199" t="n">
+        <v>415.83</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="D200" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="E200" t="n">
+        <v>415.83</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="D201" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="E201" t="n">
+        <v>415.83</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="D202" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="E202" t="n">
+        <v>415.83</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="D203" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="E203" t="n">
+        <v>415.83</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="D204" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="E204" t="n">
+        <v>415.83</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="D205" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="E205" t="n">
+        <v>415.83</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="D206" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="E206" t="n">
+        <v>415.83</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="D207" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="E207" t="n">
+        <v>415.83</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="D208" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="E208" t="n">
+        <v>415.83</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="D209" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="E209" t="n">
+        <v>415.83</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="D210" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="E210" t="n">
+        <v>415.83</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="D211" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="E211" t="n">
+        <v>415.83</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="D212" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="E212" t="n">
+        <v>415.83</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="D213" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="E213" t="n">
+        <v>415.83</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="D214" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="E214" t="n">
+        <v>415.83</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="D215" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="E215" t="n">
+        <v>415.83</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="D216" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="E216" t="n">
+        <v>415.83</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="D217" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="E217" t="n">
+        <v>415.83</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>prueba app 2</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>2024-10-03_14-00-51</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Glúteo</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>MEDIDAS(Kgf/cm2)</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>MEDIDAS (kPa)</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="D219" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="E219" t="n">
+        <v>184.02</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="D220" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="E220" t="n">
+        <v>392.82</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="D221" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="E221" t="n">
+        <v>392.82</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="D222" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="E222" t="n">
+        <v>392.82</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="D223" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="E223" t="n">
+        <v>392.82</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="D224" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="E224" t="n">
+        <v>392.82</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="D225" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="E225" t="n">
+        <v>392.82</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="D226" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="E226" t="n">
+        <v>392.82</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="D227" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="E227" t="n">
+        <v>392.82</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="D228" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="E228" t="n">
+        <v>392.82</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="D229" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="E229" t="n">
+        <v>392.82</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="D230" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="E230" t="n">
+        <v>392.82</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="D231" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="E231" t="n">
+        <v>392.82</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="D232" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="E232" t="n">
+        <v>392.82</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="D233" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="E233" t="n">
+        <v>392.82</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="D234" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="E234" t="n">
+        <v>392.82</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="D235" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="E235" t="n">
+        <v>392.82</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="D236" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="E236" t="n">
+        <v>392.82</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="D237" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="E237" t="n">
+        <v>392.82</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="D238" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="E238" t="n">
+        <v>392.82</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="D239" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="E239" t="n">
+        <v>392.82</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="D240" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="E240" t="n">
+        <v>392.82</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>2024-10-19_18-51-48</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Segunda costilla</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>MEDIDAS(Kgf/cm2)</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>MEDIDAS (kPa)</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="D242" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="E242" t="n">
+        <v>230.03</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="D243" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="E243" t="n">
+        <v>230.03</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="D244" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="E244" t="n">
+        <v>346.82</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="D245" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="E245" t="n">
+        <v>484.83</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="D246" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="E246" t="n">
+        <v>346.82</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="D247" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="E247" t="n">
+        <v>532.61</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="D248" t="n">
+        <v>7.07</v>
+      </c>
+      <c r="E248" t="n">
+        <v>693.63</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="D249" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="E249" t="n">
+        <v>507.84</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="D250" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="E250" t="n">
+        <v>438.83</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="D251" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="E251" t="n">
+        <v>300.81</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="D252" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="E252" t="n">
+        <v>461.83</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="D253" t="n">
+        <v>6.37</v>
+      </c>
+      <c r="E253" t="n">
+        <v>624.62</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="D254" t="n">
+        <v>8.26</v>
+      </c>
+      <c r="E254" t="n">
+        <v>810.42</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="D255" t="n">
+        <v>7.07</v>
+      </c>
+      <c r="E255" t="n">
+        <v>693.63</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>prueba 1</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>2024-12-11_23-59-07</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>porcion superior del brazo</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>MEDIDAS(Kgf/cm2)</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>MEDIDAS (kPa)</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="D257" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="E257" t="n">
+        <v>346.82</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="D258" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="E258" t="n">
+        <v>484.83</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="D259" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E259" t="n">
+        <v>647.63</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="D260" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="E260" t="n">
+        <v>762.64</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Medidas/mediciones_voluntarios.xlsx
+++ b/Medidas/mediciones_voluntarios.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,12 +470,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>pRUEBA 1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-09-29_19-58-33</t>
+          <t>2025-09-29_20-53-09</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -496,243 +496,104 @@
     </row>
     <row r="3">
       <c r="D3" t="n">
-        <v>0.86</v>
+        <v>4.72</v>
       </c>
       <c r="E3" t="n">
-        <v>84.56</v>
+        <v>463.25</v>
       </c>
     </row>
     <row r="4">
       <c r="D4" t="n">
-        <v>0.9399999999999999</v>
+        <v>4.49</v>
       </c>
       <c r="E4" t="n">
-        <v>92.62</v>
+        <v>440.07</v>
       </c>
     </row>
     <row r="5">
       <c r="D5" t="n">
-        <v>1.03</v>
+        <v>4.01</v>
       </c>
       <c r="E5" t="n">
-        <v>100.65</v>
+        <v>393.71</v>
       </c>
     </row>
     <row r="6">
       <c r="D6" t="n">
-        <v>1.11</v>
+        <v>4.96</v>
       </c>
       <c r="E6" t="n">
-        <v>108.71</v>
+        <v>486.43</v>
       </c>
     </row>
     <row r="7">
       <c r="D7" t="n">
-        <v>1.07</v>
+        <v>4.72</v>
       </c>
       <c r="E7" t="n">
-        <v>104.68</v>
+        <v>463.25</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2025-09-29_20-00-02</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Epicóndilo lateral</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>MEDIDAS(Kgf/cm2)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>MEDIDAS (kPa)</t>
-        </is>
+      <c r="D8" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="E8" t="n">
+        <v>486.43</v>
       </c>
     </row>
     <row r="9">
       <c r="D9" t="n">
-        <v>1</v>
+        <v>4.49</v>
       </c>
       <c r="E9" t="n">
-        <v>98.08</v>
+        <v>440.07</v>
       </c>
     </row>
     <row r="10">
-      <c r="D10" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="E10" t="n">
-        <v>104.62</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Prueba 2</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025-09-29_20-54-16</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>MEDIDAS(Kgf/cm2)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>MEDIDAS (kPa)</t>
+        </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>aa</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2025-09-29_20-04-49</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Epicóndilo lateral</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>MEDIDAS(Kgf/cm2)</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>MEDIDAS (kPa)</t>
-        </is>
+      <c r="D11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" t="n">
+        <v>196.16</v>
       </c>
     </row>
     <row r="12">
       <c r="D12" t="n">
-        <v>2.29</v>
+        <v>1.88</v>
       </c>
       <c r="E12" t="n">
-        <v>224.19</v>
+        <v>183.89</v>
       </c>
     </row>
     <row r="13">
       <c r="D13" t="n">
-        <v>2.29</v>
+        <v>2.25</v>
       </c>
       <c r="E13" t="n">
-        <v>224.19</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="D14" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="E14" t="n">
-        <v>280.29</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="D15" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="E15" t="n">
-        <v>336.39</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="D16" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="E16" t="n">
-        <v>308.34</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="D17" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="E17" t="n">
-        <v>280.29</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="D19" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="E19" t="n">
-        <v>224.19</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="D20" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="E20" t="n">
-        <v>168.09</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="D21" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="E21" t="n">
-        <v>224.19</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="D22" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="E22" t="n">
-        <v>280.29</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>2025-09-29_20-07-46</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Epicóndilo lateral</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>MEDIDAS(Kgf/cm2)</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>MEDIDAS (kPa)</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="D24" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="E24" t="n">
-        <v>115.72</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="D25" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="E25" t="n">
-        <v>231.62</v>
+        <v>220.71</v>
       </c>
     </row>
   </sheetData>
